--- a/data-science/HW04_Taylor_Ryan/result.xlsx
+++ b/data-science/HW04_Taylor_Ryan/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,360 +472,552 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Theatrical Outfit Presents Flex by Candrice Jones</t>
+          <t>Candler Park Fall Fest 2022</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://discoveratlanta.com/event/detail/theatrical-outfit-presents-flex-by-candrice-jones/</t>
+          <t>https://discoveratlanta.com/event/detail/candler-park-fall-fest-2022/</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Atlanta Hip Hop Day Festival</t>
+          <t>Stranger Things: The Experience</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://discoveratlanta.com/event/detail/atlanta-hip-hop-day-festival/</t>
+          <t>https://discoveratlanta.com/event/detail/stranger-things-the-experience/</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ani Difranco – Revolutionary Love Tour</t>
+          <t>2022 Mayor’s Pride Exhibit – Elevate ATL Art</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://discoveratlanta.com/event/detail/ani-difranco-revolutionary-love-tour/</t>
+          <t>https://discoveratlanta.com/event/detail/2022-mayor-s-pride-exhibit-elevate-atl-art/</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Atlanta Falcons vs. Cleveland Browns – Oct. 2</t>
+          <t>Pumpkin Festival</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://discoveratlanta.com/event/detail/atlanta-falcons-vs-cleveland-browns-oct-2/</t>
+          <t>https://discoveratlanta.com/event/detail/pumpkin-festival/</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HOBNOB Neighborhood Tavern</t>
+          <t>Woodland Spirits</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://discoveratlanta.com/event/detail/hobnob-neighborhood-tavern/</t>
+          <t>https://discoveratlanta.com/event/detail/woodland-spirits/</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ancient Engraved Gemstones</t>
+          <t>PAW Patrol: Adventure Play</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://discoveratlanta.com/event/detail/ancient-engraved-gemstones/</t>
+          <t>https://discoveratlanta.com/event/detail/paw-patrol-adventure-play/</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Simply Pink Brunch 2022</t>
+          <t>Atlanta Hip Hop Day Festival</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://discoveratlanta.com/event/detail/simply-pink-brunch-2022/</t>
+          <t>https://discoveratlanta.com/event/detail/atlanta-hip-hop-day-festival/</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Der Biergarten Oktoberfest</t>
+          <t>Little 5 Points Ghost Tour</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://discoveratlanta.com/event/detail/der-biergarten-oktoberfest/</t>
+          <t>https://discoveratlanta.com/event/detail/little-5-points-ghost-tour/</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022 Atlanta Homes &amp; Lifestyles Serenbe Showhouse</t>
+          <t>Scarecrows in the Garden</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://discoveratlanta.com/event/detail/2022-atlanta-homes-lifestyles-serenbe-showhouse/</t>
+          <t>https://discoveratlanta.com/event/detail/scarecrows-in-the-garden/</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Out On Film, Atlanta’s LGBTQ film festival</t>
+          <t>Ani Difranco – Revolutionary Love Tour</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://discoveratlanta.com/event/detail/out-on-film-atlanta-s-lgbtq-film-festival/</t>
+          <t>https://discoveratlanta.com/event/detail/ani-difranco-revolutionary-love-tour/</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022 Serenbe Designer Showhouse Tours</t>
+          <t>Atlanta Falcons vs. Cleveland Browns – Oct. 2</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://discoveratlanta.com/event/detail/2022-serenbe-designer-showhouse-tours/</t>
+          <t>https://discoveratlanta.com/event/detail/atlanta-falcons-vs-cleveland-browns-oct-2/</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Atlanta International Fashion Week</t>
+          <t>HOBNOB Neighborhood Tavern</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://discoveratlanta.com/event/detail/atlanta-international-fashion-week/</t>
+          <t>https://discoveratlanta.com/event/detail/hobnob-neighborhood-tavern/</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Atlanta Art Week 2022</t>
+          <t>Ancient Engraved Gemstones</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://discoveratlanta.com/event/detail/atlanta-art-week-2022/</t>
+          <t>https://discoveratlanta.com/event/detail/ancient-engraved-gemstones/</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Buckhead Village Presents Gallerie 88 Design House</t>
+          <t>Space Illuminarium: A Journey to the Moon &amp; Beyond</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://discoveratlanta.com/event/detail/buckhead-village-presents-gallerie-88-design-house/</t>
+          <t>https://discoveratlanta.com/event/detail/space-illuminarium-a-journey-to-the-moon-beyond/</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Camp Erin Supports Families Grieving a COVID Death</t>
+          <t>Theatrical Outfit Presents Flex by Candrice Jones</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://discoveratlanta.com/event/detail/camp-erin-supports-families-grieving-a-covid-death/</t>
+          <t>https://discoveratlanta.com/event/detail/theatrical-outfit-presents-flex-by-candrice-jones/</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Emergence by Rachel Parish</t>
+          <t>Der Biergarten Oktoberfest</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://discoveratlanta.com/event/detail/emergence-by-rachel-parish/</t>
+          <t>https://discoveratlanta.com/event/detail/der-biergarten-oktoberfest/</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>100 Watt Horse &amp; Joelton Mayfield: Live in Concert</t>
+          <t>2022 Atlanta Homes &amp; Lifestyles Serenbe Showhouse</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://discoveratlanta.com/event/detail/100-watt-horse-joelton-mayfield-live-in-concert/</t>
+          <t>https://discoveratlanta.com/event/detail/2022-atlanta-homes-lifestyles-serenbe-showhouse/</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Marcus King</t>
+          <t>Out On Film, Atlanta’s LGBTQ film festival</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://discoveratlanta.com/event/detail/marcus-king/</t>
+          <t>https://discoveratlanta.com/event/detail/out-on-film-atlanta-s-lgbtq-film-festival/</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>National Sons Day Event at The BRG</t>
+          <t>2022 Serenbe Designer Showhouse Tours</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://discoveratlanta.com/event/detail/national-sons-day-event-at-the-brg/</t>
+          <t>https://discoveratlanta.com/event/detail/2022-serenbe-designer-showhouse-tours/</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Ninja Sex Part</t>
+          <t>Atlanta International Fashion Week</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://discoveratlanta.com/event/detail/ninja-sex-part/</t>
+          <t>https://discoveratlanta.com/event/detail/atlanta-international-fashion-week/</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Party like it’s 1972: 50th Anniversary Celebration</t>
+          <t>Atlanta Art Week 2022</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://discoveratlanta.com/event/detail/party-like-it-s-1972-50th-anniversary-celebration/</t>
+          <t>https://discoveratlanta.com/event/detail/atlanta-art-week-2022/</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Vista Kicks</t>
+          <t>Georgia Latino International Film Festival</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://discoveratlanta.com/event/detail/vista-kicks/</t>
+          <t>https://discoveratlanta.com/event/detail/georgia-latino-international-film-festival/</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Jimmy O’Neal About Now: An Introspective</t>
+          <t>Buckhead Village Presents Gallerie 88 Design House</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://discoveratlanta.com/event/detail/jimmy-o-neal-about-now-an-introspective/</t>
+          <t>https://discoveratlanta.com/event/detail/buckhead-village-presents-gallerie-88-design-house/</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>FREE Monkey Pox Vaccine Event At X Midtown</t>
+          <t>Camp Erin Supports Families Grieving a COVID Death</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://discoveratlanta.com/event/detail/free-monkey-pox-vaccine-event-at-x-midtown/</t>
+          <t>https://discoveratlanta.com/event/detail/camp-erin-supports-families-grieving-a-covid-death/</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Gurl Mobb Museum- Selfie museum in Atlanta</t>
+          <t>Designing Women 2020: The Big Split</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://discoveratlanta.com/event/detail/gurl-mobb-museum-selfie-museum-in-atlanta/</t>
+          <t>https://discoveratlanta.com/event/detail/designing-women-2020-the-big-split/</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Midtown Atlanta Food and Cocktail Tour</t>
+          <t>Emergence by Rachel Parish</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://discoveratlanta.com/event/detail/midtown-atlanta-food-and-cocktail-tour/</t>
+          <t>https://discoveratlanta.com/event/detail/emergence-by-rachel-parish/</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2022 Veteran Bravery Nomination</t>
+          <t>Raise a Stein to the Return of Oktoberfest Atlanta</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://discoveratlanta.com/event/detail/2022-veteran-bravery-nomination/</t>
+          <t>https://discoveratlanta.com/event/detail/raise-a-stein-to-the-return-of-oktoberfest-atlanta/</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Save the Video Store! An Immersive Film Experience</t>
+          <t>100 Watt Horse &amp; Joelton Mayfield: Live in Concert</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://discoveratlanta.com/event/detail/save-the-video-store-an-immersive-film-experience/</t>
+          <t>https://discoveratlanta.com/event/detail/100-watt-horse-joelton-mayfield-live-in-concert/</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Stephen Burks Shelter in Place</t>
+          <t>Marcus King</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://discoveratlanta.com/event/detail/stephen-burks-shelter-in-place/</t>
+          <t>https://discoveratlanta.com/event/detail/marcus-king/</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>Gather round’ | Apermoutho: A Low ABV Day Disco</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://discoveratlanta.com/event/detail/gather-round-apermoutho-a-low-abv-day-disco/</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>National Sons Day Event at The BRG</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://discoveratlanta.com/event/detail/national-sons-day-event-at-the-brg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Ninja Sex Part</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://discoveratlanta.com/event/detail/ninja-sex-part/</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Party like it’s 1972: 50th Anniversary Celebration</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://discoveratlanta.com/event/detail/party-like-it-s-1972-50th-anniversary-celebration/</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Vista Kicks</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://discoveratlanta.com/event/detail/vista-kicks/</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Jimmy O’Neal About Now: An Introspective</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://discoveratlanta.com/event/detail/jimmy-o-neal-about-now-an-introspective/</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>FREE Monkey Pox Vaccine Event At X Midtown</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://discoveratlanta.com/event/detail/free-monkey-pox-vaccine-event-at-x-midtown/</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Simply Pink Brunch 2022</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://discoveratlanta.com/event/detail/simply-pink-brunch-2022/</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Gurl Mobb Museum- Selfie museum in Atlanta</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://discoveratlanta.com/event/detail/gurl-mobb-museum-selfie-museum-in-atlanta/</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Midtown Atlanta Food and Cocktail Tour</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://discoveratlanta.com/event/detail/midtown-atlanta-food-and-cocktail-tour/</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2022 Veteran Bravery Nomination</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://discoveratlanta.com/event/detail/2022-veteran-bravery-nomination/</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Waking Wonderland: An Immersive Experience</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://discoveratlanta.com/event/detail/waking-wonderland-an-immersive-experience/</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Save the Video Store! An Immersive Film Experience</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://discoveratlanta.com/event/detail/save-the-video-store-an-immersive-film-experience/</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Stephen Burks Shelter in Place</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://discoveratlanta.com/event/detail/stephen-burks-shelter-in-place/</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Fright Fest Atlanta 2022</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://discoveratlanta.com/event/detail/fright-fest-atlanta-2022/</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
           <t>Mattie Lou O’Kelley: The Long Journey to Success</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>https://discoveratlanta.com/event/detail/mattie-lou-o-kelley-the-long-journey-to-success/</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Synchronicity Theatre Season 25 ACT 1</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://discoveratlanta.com/event/detail/synchronicity-theatre-season-25-act-1/</t>
         </is>
       </c>
     </row>
